--- a/data/trans_camb/P16A04-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,11</t>
+          <t>-1,51; 3,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,46</t>
+          <t>-1,16; 3,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,75</t>
+          <t>-2,49; 0,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,99</t>
+          <t>-0,46; 3,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,39</t>
+          <t>-1,42; 2,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,15</t>
+          <t>1,11; 5,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,51</t>
+          <t>-0,64; 2,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,32</t>
+          <t>-0,82; 2,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,24</t>
+          <t>-0,39; 2,29</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,61; 238,98</t>
+          <t>-58,21; 258,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 270,69</t>
+          <t>-42,84; 310,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,54; 68,29</t>
+          <t>-75,68; 94,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,24; —</t>
+          <t>-57,01; 1247,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,7; 1468,8</t>
+          <t>22,54; 1387,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 251,46</t>
+          <t>-38,26; 244,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,35; 228,73</t>
+          <t>-37,71; 210,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 211,73</t>
+          <t>-17,22; 223,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,58</t>
+          <t>-0,74; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,82</t>
+          <t>-0,8; 2,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,98</t>
+          <t>-0,87; 2,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,65</t>
+          <t>-2,73; 1,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,62</t>
+          <t>-3,51; 0,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,96</t>
+          <t>-3,03; 0,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,52</t>
+          <t>-1,2; 1,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,08</t>
+          <t>-1,56; 1,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,01</t>
+          <t>-1,2; 1,1</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 702,14</t>
+          <t>-53,41; 741,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,66; 770,26</t>
+          <t>-62,73; 738,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,76; 530,92</t>
+          <t>-58,84; 656,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-74,98; 133,47</t>
+          <t>-73,45; 154,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-88,51; 52,63</t>
+          <t>-91,46; 73,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,75; 87,74</t>
+          <t>-79,81; 57,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,86; 126,33</t>
+          <t>-51,34; 133,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,38; 98,15</t>
+          <t>-63,65; 103,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-56,38; 89,8</t>
+          <t>-51,12; 110,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,38</t>
+          <t>0,21; 4,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,85</t>
+          <t>-1,79; 0,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,04</t>
+          <t>-1,17; 3,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 2,36</t>
+          <t>-4,74; 2,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 6,19</t>
+          <t>-3,05; 6,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,41</t>
+          <t>-2,41; 5,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,21</t>
+          <t>-0,17; 3,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,53</t>
+          <t>-1,46; 1,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,54</t>
+          <t>-1,52; 3,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 442,4</t>
+          <t>-6,35; 417,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,34; 96,85</t>
+          <t>-79,19; 115,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,27; 333,5</t>
+          <t>-51,39; 318,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,32; 158,47</t>
+          <t>-80,4; 172,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,79; 350,05</t>
+          <t>-66,05; 414,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 340,96</t>
+          <t>-45,46; 329,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 213,29</t>
+          <t>-14,23; 232,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,27; 103,76</t>
+          <t>-56,92; 107,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,55; 206,26</t>
+          <t>-45,84; 220,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,47</t>
+          <t>-0,07; 2,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,58</t>
+          <t>-0,66; 1,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,33</t>
+          <t>-1,0; 1,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,85</t>
+          <t>-0,14; 3,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,3</t>
+          <t>-1,35; 2,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,74</t>
+          <t>-2,44; 0,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,64</t>
+          <t>0,23; 2,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,55</t>
+          <t>-0,45; 1,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,8</t>
+          <t>-1,25; 0,87</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 170,69</t>
+          <t>-5,94; 189,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 111,99</t>
+          <t>-27,07; 131,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,62; 94,49</t>
+          <t>-41,92; 89,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 204,42</t>
+          <t>-7,66; 179,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 114,47</t>
+          <t>-37,56; 116,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,6; 34,33</t>
+          <t>-63,97; 37,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,75; 143,18</t>
+          <t>8,71; 142,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 90,13</t>
+          <t>-17,38; 86,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 43,0</t>
+          <t>-44,09; 49,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,6</t>
+          <t>-2,07; 2,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,03</t>
+          <t>-3,41; 0,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,76</t>
+          <t>-3,24; 0,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,49</t>
+          <t>-2,1; 1,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,71</t>
+          <t>-1,77; 1,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,3</t>
+          <t>-0,35; 4,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,35</t>
+          <t>-1,39; 1,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,88</t>
+          <t>-1,7; 0,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,35</t>
+          <t>-0,95; 2,28</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,31; 144,42</t>
+          <t>-51,64; 157,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,28; 64,93</t>
+          <t>-75,08; 53,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-72,83; 62,15</t>
+          <t>-73,36; 71,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-65,16; 103,39</t>
+          <t>-61,94; 98,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-53,89; 127,54</t>
+          <t>-53,33; 126,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 290,32</t>
+          <t>-15,01; 281,95</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-44,78; 69,06</t>
+          <t>-42,44; 80,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 48,94</t>
+          <t>-50,42; 56,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 127,93</t>
+          <t>-29,39; 120,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,12</t>
+          <t>-1,0; 2,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,04</t>
+          <t>-0,91; 2,03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,04; 8,56</t>
+          <t>0,06; 8,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,95</t>
+          <t>-0,32; 2,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,99</t>
+          <t>-1,23; 0,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,83</t>
+          <t>-0,47; 1,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,75</t>
+          <t>-0,37; 1,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,92</t>
+          <t>-0,88; 0,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,78</t>
+          <t>0,07; 2,67</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 134,19</t>
+          <t>-17,24; 144,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 76,59</t>
+          <t>-54,27; 74,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 146,2</t>
+          <t>-23,41; 135,68</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 159,85</t>
+          <t>-18,31; 140,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 79,64</t>
+          <t>-47,78; 81,02</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 221,77</t>
+          <t>1,11; 212,14</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,84</t>
+          <t>0,24; 1,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,88</t>
+          <t>-0,47; 0,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,19</t>
+          <t>-0,38; 1,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,38</t>
+          <t>-0,15; 1,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,74</t>
+          <t>-0,7; 0,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,62</t>
+          <t>-0,08; 1,58</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,39</t>
+          <t>0,33; 1,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,68</t>
+          <t>-0,35; 0,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,12</t>
+          <t>0,02; 1,17</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>16,29; 126,14</t>
+          <t>10,13; 121,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 59,34</t>
+          <t>-22,17; 60,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 76,58</t>
+          <t>-18,67; 73,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 73,93</t>
+          <t>-5,25; 75,71</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 39,8</t>
+          <t>-27,78; 40,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 83,97</t>
+          <t>-3,1; 85,69</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,66; 77,17</t>
+          <t>14,58; 78,81</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 39,8</t>
+          <t>-15,25; 35,07</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1,36; 62,06</t>
+          <t>1,49; 64,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A04-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
